--- a/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.7342245652495762</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.03621639729184167</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.08258321322289897</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.8810462876137706</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.8076217735767983</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5364198375326765</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5894317446958546</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.660686106079908</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3601731490342388</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0.6427694995749107</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.03516916417516569</v>
+      </c>
+      <c r="E3">
+        <v>0.08369972664432535</v>
+      </c>
+      <c r="F3">
+        <v>0.8162447554563812</v>
+      </c>
+      <c r="G3">
+        <v>0.7495678373784358</v>
+      </c>
+      <c r="H3">
+        <v>0.5169355111313507</v>
+      </c>
+      <c r="I3">
+        <v>0.595535864321814</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1.448909171099103</v>
+      </c>
+      <c r="L3">
+        <v>0.3133870773913685</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.5870310259593907</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.03452398512141741</v>
+      </c>
+      <c r="E4">
+        <v>0.08444074383605571</v>
+      </c>
+      <c r="F4">
+        <v>0.7781852639343327</v>
+      </c>
+      <c r="G4">
+        <v>0.7156802497071055</v>
+      </c>
+      <c r="H4">
+        <v>0.505983701630484</v>
+      </c>
+      <c r="I4">
+        <v>0.6003629972161946</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1.319292649243835</v>
+      </c>
+      <c r="L4">
+        <v>0.2849694958111257</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.5644096564841448</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.03426045619695728</v>
+      </c>
+      <c r="E5">
+        <v>0.08475647475306047</v>
+      </c>
+      <c r="F5">
+        <v>0.7630806273830402</v>
+      </c>
+      <c r="G5">
+        <v>0.7022818603192462</v>
+      </c>
+      <c r="H5">
+        <v>0.5017610411900364</v>
+      </c>
+      <c r="I5">
+        <v>0.6025909351317154</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1.26654617209843</v>
+      </c>
+      <c r="L5">
+        <v>0.2734576990620212</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.5606586479362932</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.03421665866114765</v>
+      </c>
+      <c r="E6">
+        <v>0.0848097274821602</v>
+      </c>
+      <c r="F6">
+        <v>0.7605961303875404</v>
+      </c>
+      <c r="G6">
+        <v>0.7000810260770294</v>
+      </c>
+      <c r="H6">
+        <v>0.5010739882044533</v>
+      </c>
+      <c r="I6">
+        <v>0.6029763396653465</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1.257791215478903</v>
+      </c>
+      <c r="L6">
+        <v>0.271550059443129</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.586725586921176</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.03452043364067592</v>
+      </c>
+      <c r="E7">
+        <v>0.08444494641673739</v>
+      </c>
+      <c r="F7">
+        <v>0.7779799562064369</v>
+      </c>
+      <c r="G7">
+        <v>0.7154979294611081</v>
+      </c>
+      <c r="H7">
+        <v>0.5059257984498799</v>
+      </c>
+      <c r="I7">
+        <v>0.6003920013220423</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1.318581034681443</v>
+      </c>
+      <c r="L7">
+        <v>0.2848139776647258</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0.702597234837441</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.03585571828916656</v>
+      </c>
+      <c r="E8">
+        <v>0.08295655524417134</v>
+      </c>
+      <c r="F8">
+        <v>0.8583253610352415</v>
+      </c>
+      <c r="G8">
+        <v>0.7872207491174663</v>
+      </c>
+      <c r="H8">
+        <v>0.5294829212686949</v>
+      </c>
+      <c r="I8">
+        <v>0.5913059471520903</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1.587559767865514</v>
+      </c>
+      <c r="L8">
+        <v>0.3439714249793155</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0.9337023291153912</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.03846075668255722</v>
+      </c>
+      <c r="E9">
+        <v>0.08048730117841485</v>
+      </c>
+      <c r="F9">
+        <v>1.031045972565579</v>
+      </c>
+      <c r="G9">
+        <v>0.9433141705512611</v>
+      </c>
+      <c r="H9">
+        <v>0.5843881503140977</v>
+      </c>
+      <c r="I9">
+        <v>0.5825557702907531</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2.119857812024037</v>
+      </c>
+      <c r="L9">
+        <v>0.4628800128025006</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.106751152101197</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.04037303115895341</v>
+      </c>
+      <c r="E10">
+        <v>0.07896150784373468</v>
+      </c>
+      <c r="F10">
+        <v>1.169360497843883</v>
+      </c>
+      <c r="G10">
+        <v>1.069663993754986</v>
+      </c>
+      <c r="H10">
+        <v>0.6310633930232825</v>
+      </c>
+      <c r="I10">
+        <v>0.5824058007207924</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2.516228044251704</v>
+      </c>
+      <c r="L10">
+        <v>0.5526864876092077</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.186398375186741</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.04124442396181749</v>
+      </c>
+      <c r="E11">
+        <v>0.07833365242137669</v>
+      </c>
+      <c r="F11">
+        <v>1.235291257737074</v>
+      </c>
+      <c r="G11">
+        <v>1.130226311380966</v>
+      </c>
+      <c r="H11">
+        <v>0.6539234695042637</v>
+      </c>
+      <c r="I11">
+        <v>0.5838823575469263</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2.69827176061051</v>
+      </c>
+      <c r="L11">
+        <v>0.5942368362807287</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.216711206447798</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.04157478761816691</v>
+      </c>
+      <c r="E12">
+        <v>0.07810577449078204</v>
+      </c>
+      <c r="F12">
+        <v>1.260738719690622</v>
+      </c>
+      <c r="G12">
+        <v>1.153653511437739</v>
+      </c>
+      <c r="H12">
+        <v>0.6628369120464299</v>
+      </c>
+      <c r="I12">
+        <v>0.5846801797256731</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2.767508391678291</v>
+      </c>
+      <c r="L12">
+        <v>0.6100859312580695</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.210175710229606</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.0415036177036221</v>
+      </c>
+      <c r="E13">
+        <v>0.07815440672240337</v>
+      </c>
+      <c r="F13">
+        <v>1.255235955172793</v>
+      </c>
+      <c r="G13">
+        <v>1.148585250281513</v>
+      </c>
+      <c r="H13">
+        <v>0.6609054346641301</v>
+      </c>
+      <c r="I13">
+        <v>0.5844974607063875</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2.752582803550183</v>
+      </c>
+      <c r="L13">
+        <v>0.6066671886561039</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.188889066532425</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.0412715943626587</v>
+      </c>
+      <c r="E14">
+        <v>0.07831470464279722</v>
+      </c>
+      <c r="F14">
+        <v>1.237374907587494</v>
+      </c>
+      <c r="G14">
+        <v>1.132143487531152</v>
+      </c>
+      <c r="H14">
+        <v>0.6546514984910061</v>
+      </c>
+      <c r="I14">
+        <v>0.5839431116156106</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2.703961563243496</v>
+      </c>
+      <c r="L14">
+        <v>0.5955383599873869</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.175870786702916</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.04112952919692248</v>
+      </c>
+      <c r="E15">
+        <v>0.07841418923455956</v>
+      </c>
+      <c r="F15">
+        <v>1.226498625415843</v>
+      </c>
+      <c r="G15">
+        <v>1.122138267641105</v>
+      </c>
+      <c r="H15">
+        <v>0.6508549410341118</v>
+      </c>
+      <c r="I15">
+        <v>0.5836351548126757</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2.674220407958529</v>
+      </c>
+      <c r="L15">
+        <v>0.5887370485861112</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.101566244467676</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.04031612767698434</v>
+      </c>
+      <c r="E16">
+        <v>0.07900390172768601</v>
+      </c>
+      <c r="F16">
+        <v>1.165116357667941</v>
+      </c>
+      <c r="G16">
+        <v>1.065772352681648</v>
+      </c>
+      <c r="H16">
+        <v>0.6296040836688803</v>
+      </c>
+      <c r="I16">
+        <v>0.5823417725887623</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2.504370219939403</v>
+      </c>
+      <c r="L16">
+        <v>0.5499863235657756</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.056233087541102</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.03981762805448241</v>
+      </c>
+      <c r="E17">
+        <v>0.07938287412333533</v>
+      </c>
+      <c r="F17">
+        <v>1.128264288843354</v>
+      </c>
+      <c r="G17">
+        <v>1.032018025427362</v>
+      </c>
+      <c r="H17">
+        <v>0.6169997696886327</v>
+      </c>
+      <c r="I17">
+        <v>0.5819553289378803</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2.400651606907786</v>
+      </c>
+      <c r="L17">
+        <v>0.5264025529818213</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.030244633235412</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.03953103269703107</v>
+      </c>
+      <c r="E18">
+        <v>0.0796070600383918</v>
+      </c>
+      <c r="F18">
+        <v>1.107348233837797</v>
+      </c>
+      <c r="G18">
+        <v>1.012890579291309</v>
+      </c>
+      <c r="H18">
+        <v>0.6099017870508163</v>
+      </c>
+      <c r="I18">
+        <v>0.5818773908713339</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2.341155166031712</v>
+      </c>
+      <c r="L18">
+        <v>0.5129024413544698</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.021459604221405</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.03943401366866084</v>
+      </c>
+      <c r="E19">
+        <v>0.07968402219215776</v>
+      </c>
+      <c r="F19">
+        <v>1.100313161322362</v>
+      </c>
+      <c r="G19">
+        <v>1.006462222732083</v>
+      </c>
+      <c r="H19">
+        <v>0.6075239212127599</v>
+      </c>
+      <c r="I19">
+        <v>0.5818753096958815</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2.321036641304573</v>
+      </c>
+      <c r="L19">
+        <v>0.5083422125728418</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.061049848815173</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.03987067973332614</v>
+      </c>
+      <c r="E20">
+        <v>0.07934188662280706</v>
+      </c>
+      <c r="F20">
+        <v>1.13215791237441</v>
+      </c>
+      <c r="G20">
+        <v>1.0355811645816</v>
+      </c>
+      <c r="H20">
+        <v>0.6183256626297862</v>
+      </c>
+      <c r="I20">
+        <v>0.5819814129664351</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2.411675737900964</v>
+      </c>
+      <c r="L20">
+        <v>0.5289062924194496</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.195137181550791</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.04133973326337426</v>
+      </c>
+      <c r="E21">
+        <v>0.07826735017363173</v>
+      </c>
+      <c r="F21">
+        <v>1.242607674915448</v>
+      </c>
+      <c r="G21">
+        <v>1.136959016465056</v>
+      </c>
+      <c r="H21">
+        <v>0.6564812687634003</v>
+      </c>
+      <c r="I21">
+        <v>0.5840993208885692</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2.718234207500245</v>
+      </c>
+      <c r="L21">
+        <v>0.5988039257613593</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.283667837962923</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.04230219431801885</v>
+      </c>
+      <c r="E22">
+        <v>0.07762284560269794</v>
+      </c>
+      <c r="F22">
+        <v>1.317621524786475</v>
+      </c>
+      <c r="G22">
+        <v>1.206118658968848</v>
+      </c>
+      <c r="H22">
+        <v>0.6829272672266029</v>
+      </c>
+      <c r="I22">
+        <v>0.5868834182416265</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2.920367575138812</v>
+      </c>
+      <c r="L22">
+        <v>0.6451634199225538</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.236328624935027</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.04178823199443471</v>
+      </c>
+      <c r="E23">
+        <v>0.07796141645919441</v>
+      </c>
+      <c r="F23">
+        <v>1.277309426736522</v>
+      </c>
+      <c r="G23">
+        <v>1.168923510540168</v>
+      </c>
+      <c r="H23">
+        <v>0.6686663666826576</v>
+      </c>
+      <c r="I23">
+        <v>0.5852635655612985</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2.812304083356565</v>
+      </c>
+      <c r="L23">
+        <v>0.6203533250976392</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.058871961396903</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.03984669508600902</v>
+      </c>
+      <c r="E24">
+        <v>0.07936039744480539</v>
+      </c>
+      <c r="F24">
+        <v>1.13039676561101</v>
+      </c>
+      <c r="G24">
+        <v>1.033969406041223</v>
+      </c>
+      <c r="H24">
+        <v>0.6177257658823976</v>
+      </c>
+      <c r="I24">
+        <v>0.5819691723562386</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2.406691318555431</v>
+      </c>
+      <c r="L24">
+        <v>0.5277741706600949</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8706789120611802</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.03775685313716792</v>
+      </c>
+      <c r="E25">
+        <v>0.08110579077465507</v>
+      </c>
+      <c r="F25">
+        <v>0.9824830349574114</v>
+      </c>
+      <c r="G25">
+        <v>0.8992114516945122</v>
+      </c>
+      <c r="H25">
+        <v>0.5685013175582014</v>
+      </c>
+      <c r="I25">
+        <v>0.5838779922283592</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1.975109373220107</v>
+      </c>
+      <c r="L25">
+        <v>0.4303348681189618</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7342245652495762</v>
+        <v>0.5814984262604241</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03621639729184167</v>
+        <v>0.0338715492648447</v>
       </c>
       <c r="E2">
-        <v>0.08258321322289897</v>
+        <v>0.1800552420678652</v>
       </c>
       <c r="F2">
-        <v>0.8810462876137706</v>
+        <v>1.021705754210004</v>
       </c>
       <c r="G2">
-        <v>0.8076217735767983</v>
+        <v>0.8797214613288418</v>
       </c>
       <c r="H2">
-        <v>0.5364198375326765</v>
+        <v>0.9098932397180306</v>
       </c>
       <c r="I2">
-        <v>0.5894317446958546</v>
+        <v>1.13065978319408</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.660686106079908</v>
+        <v>0.4975660889531355</v>
       </c>
       <c r="L2">
-        <v>0.3601731490342388</v>
+        <v>0.1959596293382901</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6427694995749107</v>
+        <v>0.5582198886308731</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03516916417516569</v>
+        <v>0.03334697646742057</v>
       </c>
       <c r="E3">
-        <v>0.08369972664432535</v>
+        <v>0.1809042964432894</v>
       </c>
       <c r="F3">
-        <v>0.8162447554563812</v>
+        <v>1.011847325405753</v>
       </c>
       <c r="G3">
-        <v>0.7495678373784358</v>
+        <v>0.8708116068648053</v>
       </c>
       <c r="H3">
-        <v>0.5169355111313507</v>
+        <v>0.9107309576123441</v>
       </c>
       <c r="I3">
-        <v>0.595535864321814</v>
+        <v>1.138733861339183</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.448909171099103</v>
+        <v>0.4339329784369284</v>
       </c>
       <c r="L3">
-        <v>0.3133870773913685</v>
+        <v>0.1837846991509622</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5870310259593907</v>
+        <v>0.5441744397543573</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03452398512141741</v>
+        <v>0.03302135496411651</v>
       </c>
       <c r="E4">
-        <v>0.08444074383605571</v>
+        <v>0.1814612083669731</v>
       </c>
       <c r="F4">
-        <v>0.7781852639343327</v>
+        <v>1.006456857268425</v>
       </c>
       <c r="G4">
-        <v>0.7156802497071055</v>
+        <v>0.8659602311750092</v>
       </c>
       <c r="H4">
-        <v>0.505983701630484</v>
+        <v>0.9117116594159427</v>
       </c>
       <c r="I4">
-        <v>0.6003629972161946</v>
+        <v>1.14420799687101</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.319292649243835</v>
+        <v>0.3947947305211414</v>
       </c>
       <c r="L4">
-        <v>0.2849694958111257</v>
+        <v>0.1764098340239855</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5644096564841448</v>
+        <v>0.5385135076139989</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03426045619695728</v>
+        <v>0.03288778474425058</v>
       </c>
       <c r="E5">
-        <v>0.08475647475306047</v>
+        <v>0.1816971230942053</v>
       </c>
       <c r="F5">
-        <v>0.7630806273830402</v>
+        <v>1.004426563507266</v>
       </c>
       <c r="G5">
-        <v>0.7022818603192462</v>
+        <v>0.8641386061764251</v>
       </c>
       <c r="H5">
-        <v>0.5017610411900364</v>
+        <v>0.9122285053622079</v>
       </c>
       <c r="I5">
-        <v>0.6025909351317154</v>
+        <v>1.146568608212419</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.26654617209843</v>
+        <v>0.3788289930031112</v>
       </c>
       <c r="L5">
-        <v>0.2734576990620212</v>
+        <v>0.1734298414599209</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5606586479362932</v>
+        <v>0.5375773137577085</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03421665866114765</v>
+        <v>0.032865552888655</v>
       </c>
       <c r="E6">
-        <v>0.0848097274821602</v>
+        <v>0.1817368388086873</v>
       </c>
       <c r="F6">
-        <v>0.7605961303875404</v>
+        <v>1.004099475205692</v>
       </c>
       <c r="G6">
-        <v>0.7000810260770294</v>
+        <v>0.8638454983548627</v>
       </c>
       <c r="H6">
-        <v>0.5010739882044533</v>
+        <v>0.9123214041297416</v>
       </c>
       <c r="I6">
-        <v>0.6029763396653465</v>
+        <v>1.14696842744835</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.257791215478903</v>
+        <v>0.3761769027111086</v>
       </c>
       <c r="L6">
-        <v>0.271550059443129</v>
+        <v>0.1729365464490513</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.586725586921176</v>
+        <v>0.5440978400000631</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03452043364067592</v>
+        <v>0.03301955712503002</v>
       </c>
       <c r="E7">
-        <v>0.08444494641673739</v>
+        <v>0.1814643536554188</v>
       </c>
       <c r="F7">
-        <v>0.7779799562064369</v>
+        <v>1.006428802759075</v>
       </c>
       <c r="G7">
-        <v>0.7154979294611081</v>
+        <v>0.8659350356048918</v>
       </c>
       <c r="H7">
-        <v>0.5059257984498799</v>
+        <v>0.9117181553219353</v>
       </c>
       <c r="I7">
-        <v>0.6003920013220423</v>
+        <v>1.144239307187693</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.318581034681443</v>
+        <v>0.3945794777051219</v>
       </c>
       <c r="L7">
-        <v>0.2848139776647258</v>
+        <v>0.1763695422210674</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.702597234837441</v>
+        <v>0.5734208284291071</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03585571828916656</v>
+        <v>0.03369141610120252</v>
       </c>
       <c r="E8">
-        <v>0.08295655524417134</v>
+        <v>0.1803406211810481</v>
       </c>
       <c r="F8">
-        <v>0.8583253610352415</v>
+        <v>1.018168871939281</v>
       </c>
       <c r="G8">
-        <v>0.7872207491174663</v>
+        <v>0.8765205713078785</v>
       </c>
       <c r="H8">
-        <v>0.5294829212686949</v>
+        <v>0.9100852559915751</v>
       </c>
       <c r="I8">
-        <v>0.5913059471520903</v>
+        <v>1.133336470033345</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.587559767865514</v>
+        <v>0.4756395294918434</v>
       </c>
       <c r="L8">
-        <v>0.3439714249793155</v>
+        <v>0.1917408495551456</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9337023291153912</v>
+        <v>0.63287314271696</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03846075668255722</v>
+        <v>0.03498047869740617</v>
       </c>
       <c r="E9">
-        <v>0.08048730117841485</v>
+        <v>0.1784184975145928</v>
       </c>
       <c r="F9">
-        <v>1.031045972565579</v>
+        <v>1.046463390940161</v>
       </c>
       <c r="G9">
-        <v>0.9433141705512611</v>
+        <v>0.9022122193944142</v>
       </c>
       <c r="H9">
-        <v>0.5843881503140977</v>
+        <v>0.9105872046647363</v>
       </c>
       <c r="I9">
-        <v>0.5825557702907531</v>
+        <v>1.116057720001677</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.119857812024037</v>
+        <v>0.63405786666317</v>
       </c>
       <c r="L9">
-        <v>0.4628800128025006</v>
+        <v>0.2226825384252322</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.106751152101197</v>
+        <v>0.6777264579944244</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04037303115895341</v>
+        <v>0.03590972967327133</v>
       </c>
       <c r="E10">
-        <v>0.07896150784373468</v>
+        <v>0.1771767329962413</v>
       </c>
       <c r="F10">
-        <v>1.169360497843883</v>
+        <v>1.070489346735329</v>
       </c>
       <c r="G10">
-        <v>1.069663993754986</v>
+        <v>0.9241257484500522</v>
       </c>
       <c r="H10">
-        <v>0.6310633930232825</v>
+        <v>0.9132209144325145</v>
       </c>
       <c r="I10">
-        <v>0.5824058007207924</v>
+        <v>1.105867364871159</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.516228044251704</v>
+        <v>0.7501215893364588</v>
       </c>
       <c r="L10">
-        <v>0.5526864876092077</v>
+        <v>0.2459055092674731</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.186398375186741</v>
+        <v>0.6983834146896584</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04124442396181749</v>
+        <v>0.03632850785223951</v>
       </c>
       <c r="E11">
-        <v>0.07833365242137669</v>
+        <v>0.1766485744436586</v>
       </c>
       <c r="F11">
-        <v>1.235291257737074</v>
+        <v>1.082127835313088</v>
       </c>
       <c r="G11">
-        <v>1.130226311380966</v>
+        <v>0.934761145225508</v>
       </c>
       <c r="H11">
-        <v>0.6539234695042637</v>
+        <v>0.9149124467360537</v>
       </c>
       <c r="I11">
-        <v>0.5838823575469263</v>
+        <v>1.101776167339757</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.69827176061051</v>
+        <v>0.802852608475348</v>
       </c>
       <c r="L11">
-        <v>0.5942368362807287</v>
+        <v>0.2565775306268563</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.216711206447798</v>
+        <v>0.7062416955180026</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04157478761816691</v>
+        <v>0.03648651203739917</v>
       </c>
       <c r="E12">
-        <v>0.07810577449078204</v>
+        <v>0.1764538363746397</v>
       </c>
       <c r="F12">
-        <v>1.260738719690622</v>
+        <v>1.086637330736522</v>
       </c>
       <c r="G12">
-        <v>1.153653511437739</v>
+        <v>0.9388848549365605</v>
       </c>
       <c r="H12">
-        <v>0.6628369120464299</v>
+        <v>0.9156240462240248</v>
       </c>
       <c r="I12">
-        <v>0.5846801797256731</v>
+        <v>1.100305299196265</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.767508391678291</v>
+        <v>0.8228107056882834</v>
       </c>
       <c r="L12">
-        <v>0.6100859312580695</v>
+        <v>0.2606342585261672</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.210175710229606</v>
+        <v>0.704547682619534</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0415036177036221</v>
+        <v>0.03645250889006135</v>
       </c>
       <c r="E13">
-        <v>0.07815440672240337</v>
+        <v>0.1764955428500512</v>
       </c>
       <c r="F13">
-        <v>1.255235955172793</v>
+        <v>1.085661577661611</v>
       </c>
       <c r="G13">
-        <v>1.148585250281513</v>
+        <v>0.9379924497959848</v>
       </c>
       <c r="H13">
-        <v>0.6609054346641301</v>
+        <v>0.9154676289061285</v>
       </c>
       <c r="I13">
-        <v>0.5844974607063875</v>
+        <v>1.100618589600359</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.752582803550183</v>
+        <v>0.8185128227041503</v>
       </c>
       <c r="L13">
-        <v>0.6066671886561039</v>
+        <v>0.2597598822987663</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.188889066532425</v>
+        <v>0.6990292023836844</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0412715943626587</v>
+        <v>0.03634151859864332</v>
       </c>
       <c r="E14">
-        <v>0.07831470464279722</v>
+        <v>0.1766324478222532</v>
       </c>
       <c r="F14">
-        <v>1.237374907587494</v>
+        <v>1.082496783181995</v>
       </c>
       <c r="G14">
-        <v>1.132143487531152</v>
+        <v>0.9350984725472813</v>
       </c>
       <c r="H14">
-        <v>0.6546514984910061</v>
+        <v>0.914969565895035</v>
       </c>
       <c r="I14">
-        <v>0.5839431116156106</v>
+        <v>1.101653586780238</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.703961563243496</v>
+        <v>0.8044947755540477</v>
       </c>
       <c r="L14">
-        <v>0.5955383599873869</v>
+        <v>0.2569109703178469</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.175870786702916</v>
+        <v>0.6956536414205914</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04112952919692248</v>
+        <v>0.0362734582410873</v>
       </c>
       <c r="E15">
-        <v>0.07841418923455956</v>
+        <v>0.1767169911089899</v>
       </c>
       <c r="F15">
-        <v>1.226498625415843</v>
+        <v>1.080571580495317</v>
       </c>
       <c r="G15">
-        <v>1.122138267641105</v>
+        <v>0.9333383837544886</v>
       </c>
       <c r="H15">
-        <v>0.6508549410341118</v>
+        <v>0.9146737439701269</v>
       </c>
       <c r="I15">
-        <v>0.5836351548126757</v>
+        <v>1.102297762408071</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.674220407958529</v>
+        <v>0.7959070043963834</v>
       </c>
       <c r="L15">
-        <v>0.5887370485861112</v>
+        <v>0.2551679425000088</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.101566244467676</v>
+        <v>0.6763815301775651</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04031612767698434</v>
+        <v>0.03588228124518622</v>
       </c>
       <c r="E16">
-        <v>0.07900390172768601</v>
+        <v>0.1772119869634352</v>
       </c>
       <c r="F16">
-        <v>1.165116357667941</v>
+        <v>1.069743036295591</v>
       </c>
       <c r="G16">
-        <v>1.065772352681648</v>
+        <v>0.9234441549904915</v>
       </c>
       <c r="H16">
-        <v>0.6296040836688803</v>
+        <v>0.9131203063937221</v>
       </c>
       <c r="I16">
-        <v>0.5823417725887623</v>
+        <v>1.106145697498555</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.504370219939403</v>
+        <v>0.7466741144386617</v>
       </c>
       <c r="L16">
-        <v>0.5499863235657756</v>
+        <v>0.2452102334652579</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.056233087541102</v>
+        <v>0.6646231921906463</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03981762805448241</v>
+        <v>0.03564128904742603</v>
       </c>
       <c r="E17">
-        <v>0.07938287412333533</v>
+        <v>0.1775250451759605</v>
       </c>
       <c r="F17">
-        <v>1.128264288843354</v>
+        <v>1.063281873983613</v>
       </c>
       <c r="G17">
-        <v>1.032018025427362</v>
+        <v>0.9175454597391166</v>
       </c>
       <c r="H17">
-        <v>0.6169997696886327</v>
+        <v>0.9122937740213928</v>
       </c>
       <c r="I17">
-        <v>0.5819553289378803</v>
+        <v>1.108645790023026</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.400651606907786</v>
+        <v>0.7164539200341835</v>
       </c>
       <c r="L17">
-        <v>0.5264025529818213</v>
+        <v>0.2391290818129193</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.030244633235412</v>
+        <v>0.6578839426995557</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03953103269703107</v>
+        <v>0.03550230624378514</v>
       </c>
       <c r="E18">
-        <v>0.0796070600383918</v>
+        <v>0.1777085658527184</v>
       </c>
       <c r="F18">
-        <v>1.107348233837797</v>
+        <v>1.05963229686418</v>
       </c>
       <c r="G18">
-        <v>1.012890579291309</v>
+        <v>0.9142154252107701</v>
       </c>
       <c r="H18">
-        <v>0.6099017870508163</v>
+        <v>0.9118648139985197</v>
       </c>
       <c r="I18">
-        <v>0.5818773908713339</v>
+        <v>1.11013501764544</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.341155166031712</v>
+        <v>0.6990657834853664</v>
       </c>
       <c r="L18">
-        <v>0.5129024413544698</v>
+        <v>0.2356415105079606</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.021459604221405</v>
+        <v>0.655606255705635</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03943401366866084</v>
+        <v>0.03545518576710904</v>
       </c>
       <c r="E19">
-        <v>0.07968402219215776</v>
+        <v>0.177771297216152</v>
       </c>
       <c r="F19">
-        <v>1.100313161322362</v>
+        <v>1.058408061417722</v>
       </c>
       <c r="G19">
-        <v>1.006462222732083</v>
+        <v>0.9130986951830096</v>
       </c>
       <c r="H19">
-        <v>0.6075239212127599</v>
+        <v>0.911727548622622</v>
       </c>
       <c r="I19">
-        <v>0.5818753096958815</v>
+        <v>1.110648042434796</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.321036641304573</v>
+        <v>0.6931773919130535</v>
       </c>
       <c r="L19">
-        <v>0.5083422125728418</v>
+        <v>0.2344624224322729</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.061049848815173</v>
+        <v>0.6658724236194189</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03987067973332614</v>
+        <v>0.03566698150033432</v>
       </c>
       <c r="E20">
-        <v>0.07934188662280706</v>
+        <v>0.1774913618428533</v>
       </c>
       <c r="F20">
-        <v>1.13215791237441</v>
+        <v>1.06396276903142</v>
       </c>
       <c r="G20">
-        <v>1.0355811645816</v>
+        <v>0.9181668895698465</v>
       </c>
       <c r="H20">
-        <v>0.6183256626297862</v>
+        <v>0.9123769527863885</v>
       </c>
       <c r="I20">
-        <v>0.5819814129664351</v>
+        <v>1.108374347056312</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.411675737900964</v>
+        <v>0.7196715639622084</v>
       </c>
       <c r="L20">
-        <v>0.5289062924194496</v>
+        <v>0.2397753809263889</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.195137181550791</v>
+        <v>0.70064914186446</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04133973326337426</v>
+        <v>0.03637413491159336</v>
       </c>
       <c r="E21">
-        <v>0.07826735017363173</v>
+        <v>0.1765920927822795</v>
       </c>
       <c r="F21">
-        <v>1.242607674915448</v>
+        <v>1.08342358250988</v>
       </c>
       <c r="G21">
-        <v>1.136959016465056</v>
+        <v>0.9359458864294652</v>
       </c>
       <c r="H21">
-        <v>0.6564812687634003</v>
+        <v>0.9151139299498539</v>
       </c>
       <c r="I21">
-        <v>0.5840993208885692</v>
+        <v>1.101347455112602</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.718234207500245</v>
+        <v>0.8086124899813569</v>
       </c>
       <c r="L21">
-        <v>0.5988039257613593</v>
+        <v>0.2577473453696939</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.283667837962923</v>
+        <v>0.7235870211726478</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04230219431801885</v>
+        <v>0.03683292642887182</v>
       </c>
       <c r="E22">
-        <v>0.07762284560269794</v>
+        <v>0.176035043918247</v>
       </c>
       <c r="F22">
-        <v>1.317621524786475</v>
+        <v>1.096738495366992</v>
       </c>
       <c r="G22">
-        <v>1.206118658968848</v>
+        <v>0.9481270886602431</v>
       </c>
       <c r="H22">
-        <v>0.6829272672266029</v>
+        <v>0.9173168985463462</v>
       </c>
       <c r="I22">
-        <v>0.5868834182416265</v>
+        <v>1.097211872354109</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.920367575138812</v>
+        <v>0.8666820992188491</v>
       </c>
       <c r="L22">
-        <v>0.6451634199225538</v>
+        <v>0.2695831900267081</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.236328624935027</v>
+        <v>0.7113256370229237</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04178823199443471</v>
+        <v>0.03658837308406504</v>
       </c>
       <c r="E23">
-        <v>0.07796141645919441</v>
+        <v>0.1763295501812743</v>
       </c>
       <c r="F23">
-        <v>1.277309426736522</v>
+        <v>1.089577427813282</v>
       </c>
       <c r="G23">
-        <v>1.168923510540168</v>
+        <v>0.9415742242409522</v>
       </c>
       <c r="H23">
-        <v>0.6686663666826576</v>
+        <v>0.9161032018849653</v>
       </c>
       <c r="I23">
-        <v>0.5852635655612985</v>
+        <v>1.099377275218231</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.812304083356565</v>
+        <v>0.8356947222155213</v>
       </c>
       <c r="L23">
-        <v>0.6203533250976392</v>
+        <v>0.2632579411477849</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.058871961396903</v>
+        <v>0.6653075813446776</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03984669508600902</v>
+        <v>0.03565536729023222</v>
       </c>
       <c r="E24">
-        <v>0.07936039744480539</v>
+        <v>0.1775065790529911</v>
       </c>
       <c r="F24">
-        <v>1.13039676561101</v>
+        <v>1.063654733831115</v>
       </c>
       <c r="G24">
-        <v>1.033969406041223</v>
+        <v>0.9178857505262812</v>
       </c>
       <c r="H24">
-        <v>0.6177257658823976</v>
+        <v>0.9123392036807019</v>
       </c>
       <c r="I24">
-        <v>0.5819691723562386</v>
+        <v>1.108496904785731</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.406691318555431</v>
+        <v>0.7182169111796384</v>
       </c>
       <c r="L24">
-        <v>0.5277741706600949</v>
+        <v>0.2394831624218341</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8706789120611802</v>
+        <v>0.6165825235524665</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03775685313716792</v>
+        <v>0.03463484942630402</v>
       </c>
       <c r="E25">
-        <v>0.08110579077465507</v>
+        <v>0.1789084694384915</v>
       </c>
       <c r="F25">
-        <v>0.9824830349574114</v>
+        <v>1.038242073425423</v>
       </c>
       <c r="G25">
-        <v>0.8992114516945122</v>
+        <v>0.894730653139348</v>
       </c>
       <c r="H25">
-        <v>0.5685013175582014</v>
+        <v>0.9100541649368381</v>
       </c>
       <c r="I25">
-        <v>0.5838779922283592</v>
+        <v>1.120292568823203</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.975109373220107</v>
+        <v>0.5912590414043564</v>
       </c>
       <c r="L25">
-        <v>0.4303348681189618</v>
+        <v>0.2142261603289199</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5814984262604241</v>
+        <v>0.7342245652496899</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0338715492648447</v>
+        <v>0.0362163972915539</v>
       </c>
       <c r="E2">
-        <v>0.1800552420678652</v>
+        <v>0.08258321322290252</v>
       </c>
       <c r="F2">
-        <v>1.021705754210004</v>
+        <v>0.8810462876137706</v>
       </c>
       <c r="G2">
-        <v>0.8797214613288418</v>
+        <v>0.8076217735768267</v>
       </c>
       <c r="H2">
-        <v>0.9098932397180306</v>
+        <v>0.5364198375326623</v>
       </c>
       <c r="I2">
-        <v>1.13065978319408</v>
+        <v>0.5894317446958617</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4975660889531355</v>
+        <v>1.660686106079908</v>
       </c>
       <c r="L2">
-        <v>0.1959596293382901</v>
+        <v>0.3601731490342672</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5582198886308731</v>
+        <v>0.642769499574996</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03334697646742057</v>
+        <v>0.03516916417515503</v>
       </c>
       <c r="E3">
-        <v>0.1809042964432894</v>
+        <v>0.08369972664433956</v>
       </c>
       <c r="F3">
-        <v>1.011847325405753</v>
+        <v>0.8162447554563954</v>
       </c>
       <c r="G3">
-        <v>0.8708116068648053</v>
+        <v>0.749567837378379</v>
       </c>
       <c r="H3">
-        <v>0.9107309576123441</v>
+        <v>0.5169355111314502</v>
       </c>
       <c r="I3">
-        <v>1.138733861339183</v>
+        <v>0.5955358643218176</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4339329784369284</v>
+        <v>1.448909171099046</v>
       </c>
       <c r="L3">
-        <v>0.1837846991509622</v>
+        <v>0.3133870773914396</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5441744397543573</v>
+        <v>0.5870310259595612</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03302135496411651</v>
+        <v>0.03452398512147425</v>
       </c>
       <c r="E4">
-        <v>0.1814612083669731</v>
+        <v>0.08444074383607125</v>
       </c>
       <c r="F4">
-        <v>1.006456857268425</v>
+        <v>0.7781852639343327</v>
       </c>
       <c r="G4">
-        <v>0.8659602311750092</v>
+        <v>0.715680249707134</v>
       </c>
       <c r="H4">
-        <v>0.9117116594159427</v>
+        <v>0.5059837016305835</v>
       </c>
       <c r="I4">
-        <v>1.14420799687101</v>
+        <v>0.6003629972161981</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3947947305211414</v>
+        <v>1.319292649243749</v>
       </c>
       <c r="L4">
-        <v>0.1764098340239855</v>
+        <v>0.2849694958110121</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5385135076139989</v>
+        <v>0.5644096564843153</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03288778474425058</v>
+        <v>0.03426045619695017</v>
       </c>
       <c r="E5">
-        <v>0.1816971230942053</v>
+        <v>0.08475647475305559</v>
       </c>
       <c r="F5">
-        <v>1.004426563507266</v>
+        <v>0.7630806273830473</v>
       </c>
       <c r="G5">
-        <v>0.8641386061764251</v>
+        <v>0.702281860319232</v>
       </c>
       <c r="H5">
-        <v>0.9122285053622079</v>
+        <v>0.5017610411900506</v>
       </c>
       <c r="I5">
-        <v>1.146568608212419</v>
+        <v>0.6025909351317225</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3788289930031112</v>
+        <v>1.266546172098458</v>
       </c>
       <c r="L5">
-        <v>0.1734298414599209</v>
+        <v>0.273457699062007</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5375773137577085</v>
+        <v>0.5606586479363784</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.032865552888655</v>
+        <v>0.03421665866096291</v>
       </c>
       <c r="E6">
-        <v>0.1817368388086873</v>
+        <v>0.08480972748214466</v>
       </c>
       <c r="F6">
-        <v>1.004099475205692</v>
+        <v>0.7605961303875404</v>
       </c>
       <c r="G6">
-        <v>0.8638454983548627</v>
+        <v>0.7000810260769583</v>
       </c>
       <c r="H6">
-        <v>0.9123214041297416</v>
+        <v>0.5010739882044533</v>
       </c>
       <c r="I6">
-        <v>1.14696842744835</v>
+        <v>0.6029763396653252</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3761769027111086</v>
+        <v>1.257791215478846</v>
       </c>
       <c r="L6">
-        <v>0.1729365464490513</v>
+        <v>0.2715500594430864</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5440978400000631</v>
+        <v>0.5867255869213182</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03301955712503002</v>
+        <v>0.03452043364055157</v>
       </c>
       <c r="E7">
-        <v>0.1814643536554188</v>
+        <v>0.08444494641675027</v>
       </c>
       <c r="F7">
-        <v>1.006428802759075</v>
+        <v>0.7779799562064298</v>
       </c>
       <c r="G7">
-        <v>0.8659350356048918</v>
+        <v>0.7154979294610797</v>
       </c>
       <c r="H7">
-        <v>0.9117181553219353</v>
+        <v>0.5059257984497805</v>
       </c>
       <c r="I7">
-        <v>1.144239307187693</v>
+        <v>0.6003920013220458</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3945794777051219</v>
+        <v>1.318581034681443</v>
       </c>
       <c r="L7">
-        <v>0.1763695422210674</v>
+        <v>0.2848139776647116</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5734208284291071</v>
+        <v>0.7025972348374125</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03369141610120252</v>
+        <v>0.03585571828921985</v>
       </c>
       <c r="E8">
-        <v>0.1803406211810481</v>
+        <v>0.08295655524418155</v>
       </c>
       <c r="F8">
-        <v>1.018168871939281</v>
+        <v>0.8583253610352415</v>
       </c>
       <c r="G8">
-        <v>0.8765205713078785</v>
+        <v>0.7872207491174379</v>
       </c>
       <c r="H8">
-        <v>0.9100852559915751</v>
+        <v>0.5294829212686949</v>
       </c>
       <c r="I8">
-        <v>1.133336470033345</v>
+        <v>0.5913059471520796</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4756395294918434</v>
+        <v>1.587559767865457</v>
       </c>
       <c r="L8">
-        <v>0.1917408495551456</v>
+        <v>0.343971424979344</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.63287314271696</v>
+        <v>0.933702329115448</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03498047869740617</v>
+        <v>0.03846075668256077</v>
       </c>
       <c r="E9">
-        <v>0.1784184975145928</v>
+        <v>0.0804873011784295</v>
       </c>
       <c r="F9">
-        <v>1.046463390940161</v>
+        <v>1.031045972565536</v>
       </c>
       <c r="G9">
-        <v>0.9022122193944142</v>
+        <v>0.9433141705512611</v>
       </c>
       <c r="H9">
-        <v>0.9105872046647363</v>
+        <v>0.5843881503140977</v>
       </c>
       <c r="I9">
-        <v>1.116057720001677</v>
+        <v>0.582555770290746</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.63405786666317</v>
+        <v>2.119857812023923</v>
       </c>
       <c r="L9">
-        <v>0.2226825384252322</v>
+        <v>0.4628800128025858</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6777264579944244</v>
+        <v>1.10675115210131</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03590972967327133</v>
+        <v>0.04037303115894275</v>
       </c>
       <c r="E10">
-        <v>0.1771767329962413</v>
+        <v>0.07896150784373068</v>
       </c>
       <c r="F10">
-        <v>1.070489346735329</v>
+        <v>1.169360497843897</v>
       </c>
       <c r="G10">
-        <v>0.9241257484500522</v>
+        <v>1.069663993755029</v>
       </c>
       <c r="H10">
-        <v>0.9132209144325145</v>
+        <v>0.6310633930232967</v>
       </c>
       <c r="I10">
-        <v>1.105867364871159</v>
+        <v>0.5824058007207853</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7501215893364588</v>
+        <v>2.516228044251733</v>
       </c>
       <c r="L10">
-        <v>0.2459055092674731</v>
+        <v>0.5526864876092219</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6983834146896584</v>
+        <v>1.186398375186684</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03632850785223951</v>
+        <v>0.0412444239616967</v>
       </c>
       <c r="E11">
-        <v>0.1766485744436586</v>
+        <v>0.07833365242138868</v>
       </c>
       <c r="F11">
-        <v>1.082127835313088</v>
+        <v>1.235291257737089</v>
       </c>
       <c r="G11">
-        <v>0.934761145225508</v>
+        <v>1.130226311381051</v>
       </c>
       <c r="H11">
-        <v>0.9149124467360537</v>
+        <v>0.6539234695042637</v>
       </c>
       <c r="I11">
-        <v>1.101776167339757</v>
+        <v>0.5838823575469547</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.802852608475348</v>
+        <v>2.698271760610567</v>
       </c>
       <c r="L11">
-        <v>0.2565775306268563</v>
+        <v>0.5942368362806292</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7062416955180026</v>
+        <v>1.216711206447741</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03648651203739917</v>
+        <v>0.04157478761827349</v>
       </c>
       <c r="E12">
-        <v>0.1764538363746397</v>
+        <v>0.07810577449077982</v>
       </c>
       <c r="F12">
-        <v>1.086637330736522</v>
+        <v>1.260738719690622</v>
       </c>
       <c r="G12">
-        <v>0.9388848549365605</v>
+        <v>1.153653511437682</v>
       </c>
       <c r="H12">
-        <v>0.9156240462240248</v>
+        <v>0.6628369120463447</v>
       </c>
       <c r="I12">
-        <v>1.100305299196265</v>
+        <v>0.584680179725666</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8228107056882834</v>
+        <v>2.767508391678291</v>
       </c>
       <c r="L12">
-        <v>0.2606342585261672</v>
+        <v>0.6100859312579985</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.704547682619534</v>
+        <v>1.210175710229606</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03645250889006135</v>
+        <v>0.04150361770373578</v>
       </c>
       <c r="E13">
-        <v>0.1764955428500512</v>
+        <v>0.07815440672239804</v>
       </c>
       <c r="F13">
-        <v>1.085661577661611</v>
+        <v>1.255235955172822</v>
       </c>
       <c r="G13">
-        <v>0.9379924497959848</v>
+        <v>1.148585250281485</v>
       </c>
       <c r="H13">
-        <v>0.9154676289061285</v>
+        <v>0.6609054346642154</v>
       </c>
       <c r="I13">
-        <v>1.100618589600359</v>
+        <v>0.584497460706352</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8185128227041503</v>
+        <v>2.752582803550212</v>
       </c>
       <c r="L13">
-        <v>0.2597598822987663</v>
+        <v>0.6066671886561039</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6990292023836844</v>
+        <v>1.188889066532511</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03634151859864332</v>
+        <v>0.04127159436265515</v>
       </c>
       <c r="E14">
-        <v>0.1766324478222532</v>
+        <v>0.07831470464279366</v>
       </c>
       <c r="F14">
-        <v>1.082496783181995</v>
+        <v>1.237374907587494</v>
       </c>
       <c r="G14">
-        <v>0.9350984725472813</v>
+        <v>1.132143487531067</v>
       </c>
       <c r="H14">
-        <v>0.914969565895035</v>
+        <v>0.6546514984908924</v>
       </c>
       <c r="I14">
-        <v>1.101653586780238</v>
+        <v>0.5839431116156177</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8044947755540477</v>
+        <v>2.703961563243411</v>
       </c>
       <c r="L14">
-        <v>0.2569109703178469</v>
+        <v>0.5955383599874011</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6956536414205914</v>
+        <v>1.175870786702887</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0362734582410873</v>
+        <v>0.04112952919679103</v>
       </c>
       <c r="E15">
-        <v>0.1767169911089899</v>
+        <v>0.07841418923458665</v>
       </c>
       <c r="F15">
-        <v>1.080571580495317</v>
+        <v>1.226498625415843</v>
       </c>
       <c r="G15">
-        <v>0.9333383837544886</v>
+        <v>1.122138267641134</v>
       </c>
       <c r="H15">
-        <v>0.9146737439701269</v>
+        <v>0.6508549410340834</v>
       </c>
       <c r="I15">
-        <v>1.102297762408071</v>
+        <v>0.5836351548126686</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7959070043963834</v>
+        <v>2.674220407958614</v>
       </c>
       <c r="L15">
-        <v>0.2551679425000088</v>
+        <v>0.5887370485860401</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6763815301775651</v>
+        <v>1.10156624446779</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03588228124518622</v>
+        <v>0.04031612767705539</v>
       </c>
       <c r="E16">
-        <v>0.1772119869634352</v>
+        <v>0.07900390172772775</v>
       </c>
       <c r="F16">
-        <v>1.069743036295591</v>
+        <v>1.165116357667941</v>
       </c>
       <c r="G16">
-        <v>0.9234441549904915</v>
+        <v>1.065772352681677</v>
       </c>
       <c r="H16">
-        <v>0.9131203063937221</v>
+        <v>0.6296040836688803</v>
       </c>
       <c r="I16">
-        <v>1.106145697498555</v>
+        <v>0.5823417725887552</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7466741144386617</v>
+        <v>2.504370219939346</v>
       </c>
       <c r="L16">
-        <v>0.2452102334652579</v>
+        <v>0.5499863235657756</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6646231921906463</v>
+        <v>1.056233087541159</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03564128904742603</v>
+        <v>0.03981762805471334</v>
       </c>
       <c r="E17">
-        <v>0.1775250451759605</v>
+        <v>0.07938287412333533</v>
       </c>
       <c r="F17">
-        <v>1.063281873983613</v>
+        <v>1.128264288843354</v>
       </c>
       <c r="G17">
-        <v>0.9175454597391166</v>
+        <v>1.032018025427305</v>
       </c>
       <c r="H17">
-        <v>0.9122937740213928</v>
+        <v>0.616999769688519</v>
       </c>
       <c r="I17">
-        <v>1.108645790023026</v>
+        <v>0.5819553289378803</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7164539200341835</v>
+        <v>2.400651606907786</v>
       </c>
       <c r="L17">
-        <v>0.2391290818129193</v>
+        <v>0.5264025529818213</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6578839426995557</v>
+        <v>1.03024463323527</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03550230624378514</v>
+        <v>0.03953103269702751</v>
       </c>
       <c r="E18">
-        <v>0.1777085658527184</v>
+        <v>0.07960706003839002</v>
       </c>
       <c r="F18">
-        <v>1.05963229686418</v>
+        <v>1.107348233837797</v>
       </c>
       <c r="G18">
-        <v>0.9142154252107701</v>
+        <v>1.012890579291309</v>
       </c>
       <c r="H18">
-        <v>0.9118648139985197</v>
+        <v>0.6099017870508163</v>
       </c>
       <c r="I18">
-        <v>1.11013501764544</v>
+        <v>0.5818773908713197</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6990657834853664</v>
+        <v>2.341155166031768</v>
       </c>
       <c r="L18">
-        <v>0.2356415105079606</v>
+        <v>0.5129024413544272</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.655606255705635</v>
+        <v>1.021459604221519</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03545518576710904</v>
+        <v>0.03943401366866439</v>
       </c>
       <c r="E19">
-        <v>0.177771297216152</v>
+        <v>0.07968402219216264</v>
       </c>
       <c r="F19">
-        <v>1.058408061417722</v>
+        <v>1.100313161322362</v>
       </c>
       <c r="G19">
-        <v>0.9130986951830096</v>
+        <v>1.006462222732083</v>
       </c>
       <c r="H19">
-        <v>0.911727548622622</v>
+        <v>0.6075239212127741</v>
       </c>
       <c r="I19">
-        <v>1.110648042434796</v>
+        <v>0.5818753096958815</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6931773919130535</v>
+        <v>2.321036641304516</v>
       </c>
       <c r="L19">
-        <v>0.2344624224322729</v>
+        <v>0.5083422125728418</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6658724236194189</v>
+        <v>1.061049848815202</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03566698150033432</v>
+        <v>0.03987067973331904</v>
       </c>
       <c r="E20">
-        <v>0.1774913618428533</v>
+        <v>0.07934188662282127</v>
       </c>
       <c r="F20">
-        <v>1.06396276903142</v>
+        <v>1.132157912374396</v>
       </c>
       <c r="G20">
-        <v>0.9181668895698465</v>
+        <v>1.035581164581643</v>
       </c>
       <c r="H20">
-        <v>0.9123769527863885</v>
+        <v>0.6183256626297862</v>
       </c>
       <c r="I20">
-        <v>1.108374347056312</v>
+        <v>0.5819814129664351</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7196715639622084</v>
+        <v>2.411675737900993</v>
       </c>
       <c r="L20">
-        <v>0.2397753809263889</v>
+        <v>0.5289062924194923</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.70064914186446</v>
+        <v>1.195137181550763</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03637413491159336</v>
+        <v>0.04133973326336715</v>
       </c>
       <c r="E21">
-        <v>0.1765920927822795</v>
+        <v>0.07826735017364284</v>
       </c>
       <c r="F21">
-        <v>1.08342358250988</v>
+        <v>1.242607674915448</v>
       </c>
       <c r="G21">
-        <v>0.9359458864294652</v>
+        <v>1.136959016465084</v>
       </c>
       <c r="H21">
-        <v>0.9151139299498539</v>
+        <v>0.6564812687634003</v>
       </c>
       <c r="I21">
-        <v>1.101347455112602</v>
+        <v>0.5840993208885692</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8086124899813569</v>
+        <v>2.718234207500274</v>
       </c>
       <c r="L21">
-        <v>0.2577473453696939</v>
+        <v>0.5988039257614304</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7235870211726478</v>
+        <v>1.283667837963065</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03683292642887182</v>
+        <v>0.04230219431805438</v>
       </c>
       <c r="E22">
-        <v>0.176035043918247</v>
+        <v>0.07762284560272414</v>
       </c>
       <c r="F22">
-        <v>1.096738495366992</v>
+        <v>1.317621524786489</v>
       </c>
       <c r="G22">
-        <v>0.9481270886602431</v>
+        <v>1.206118658968848</v>
       </c>
       <c r="H22">
-        <v>0.9173168985463462</v>
+        <v>0.6829272672266029</v>
       </c>
       <c r="I22">
-        <v>1.097211872354109</v>
+        <v>0.5868834182416336</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8666820992188491</v>
+        <v>2.92036757513884</v>
       </c>
       <c r="L22">
-        <v>0.2695831900267081</v>
+        <v>0.6451634199225538</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7113256370229237</v>
+        <v>1.236328624935226</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03658837308406504</v>
+        <v>0.04178823199443116</v>
       </c>
       <c r="E23">
-        <v>0.1763295501812743</v>
+        <v>0.07796141645917665</v>
       </c>
       <c r="F23">
-        <v>1.089577427813282</v>
+        <v>1.277309426736508</v>
       </c>
       <c r="G23">
-        <v>0.9415742242409522</v>
+        <v>1.168923510540196</v>
       </c>
       <c r="H23">
-        <v>0.9161032018849653</v>
+        <v>0.6686663666826576</v>
       </c>
       <c r="I23">
-        <v>1.099377275218231</v>
+        <v>0.585263565561327</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8356947222155213</v>
+        <v>2.81230408335648</v>
       </c>
       <c r="L23">
-        <v>0.2632579411477849</v>
+        <v>0.6203533250976392</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6653075813446776</v>
+        <v>1.058871961396676</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03565536729023222</v>
+        <v>0.03984669508608718</v>
       </c>
       <c r="E24">
-        <v>0.1775065790529911</v>
+        <v>0.07936039744481738</v>
       </c>
       <c r="F24">
-        <v>1.063654733831115</v>
+        <v>1.13039676561101</v>
       </c>
       <c r="G24">
-        <v>0.9178857505262812</v>
+        <v>1.03396940604128</v>
       </c>
       <c r="H24">
-        <v>0.9123392036807019</v>
+        <v>0.6177257658824118</v>
       </c>
       <c r="I24">
-        <v>1.108496904785731</v>
+        <v>0.5819691723562244</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7182169111796384</v>
+        <v>2.406691318555517</v>
       </c>
       <c r="L24">
-        <v>0.2394831624218341</v>
+        <v>0.5277741706601518</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6165825235524665</v>
+        <v>0.8706789120611802</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03463484942630402</v>
+        <v>0.03775685313710397</v>
       </c>
       <c r="E25">
-        <v>0.1789084694384915</v>
+        <v>0.08110579077465108</v>
       </c>
       <c r="F25">
-        <v>1.038242073425423</v>
+        <v>0.9824830349574114</v>
       </c>
       <c r="G25">
-        <v>0.894730653139348</v>
+        <v>0.8992114516945549</v>
       </c>
       <c r="H25">
-        <v>0.9100541649368381</v>
+        <v>0.5685013175582867</v>
       </c>
       <c r="I25">
-        <v>1.120292568823203</v>
+        <v>0.5838779922283734</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5912590414043564</v>
+        <v>1.97510937322005</v>
       </c>
       <c r="L25">
-        <v>0.2142261603289199</v>
+        <v>0.4303348681189334</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7342245652496899</v>
+        <v>3.382579823018546</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0362163972915539</v>
+        <v>0.1426160605693099</v>
       </c>
       <c r="E2">
-        <v>0.08258321322290252</v>
+        <v>1.881788683260922</v>
       </c>
       <c r="F2">
-        <v>0.8810462876137706</v>
+        <v>4.57743312591171</v>
       </c>
       <c r="G2">
-        <v>0.8076217735768267</v>
+        <v>5.349496332601973</v>
       </c>
       <c r="H2">
-        <v>0.5364198375326623</v>
+        <v>0.08025970438801444</v>
       </c>
       <c r="I2">
-        <v>0.5894317446958617</v>
+        <v>0.002260916854637252</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.632493768424524</v>
       </c>
       <c r="K2">
-        <v>1.660686106079908</v>
+        <v>11.52412880593585</v>
       </c>
       <c r="L2">
-        <v>0.3601731490342672</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.642769499574996</v>
+        <v>2.94804521090208</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03516916417515503</v>
+        <v>0.1227064796316881</v>
       </c>
       <c r="E3">
-        <v>0.08369972664433956</v>
+        <v>1.626629747420154</v>
       </c>
       <c r="F3">
-        <v>0.8162447554563954</v>
+        <v>3.943493488575911</v>
       </c>
       <c r="G3">
-        <v>0.749567837378379</v>
+        <v>4.601443114695712</v>
       </c>
       <c r="H3">
-        <v>0.5169355111314502</v>
+        <v>0.06322942845028479</v>
       </c>
       <c r="I3">
-        <v>0.5955358643218176</v>
+        <v>0.003740881386074868</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.277763550764462</v>
       </c>
       <c r="K3">
-        <v>1.448909171099046</v>
+        <v>10.07224184298019</v>
       </c>
       <c r="L3">
-        <v>0.3133870773914396</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5870310259595612</v>
+        <v>2.681048148418256</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03452398512147425</v>
+        <v>0.1107277453807711</v>
       </c>
       <c r="E4">
-        <v>0.08444074383607125</v>
+        <v>1.473505688133926</v>
       </c>
       <c r="F4">
-        <v>0.7781852639343327</v>
+        <v>3.562771770956317</v>
       </c>
       <c r="G4">
-        <v>0.715680249707134</v>
+        <v>4.151990844537949</v>
       </c>
       <c r="H4">
-        <v>0.5059837016305835</v>
+        <v>0.05364727847668505</v>
       </c>
       <c r="I4">
-        <v>0.6003629972161981</v>
+        <v>0.004900121159329807</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.064830029261685</v>
       </c>
       <c r="K4">
-        <v>1.319292649243749</v>
+        <v>9.189783335065897</v>
       </c>
       <c r="L4">
-        <v>0.2849694958110121</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5644096564843153</v>
+        <v>2.57219066657666</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03426045619695017</v>
+        <v>0.1058970401939803</v>
       </c>
       <c r="E5">
-        <v>0.08475647475305559</v>
+        <v>1.41183168109589</v>
       </c>
       <c r="F5">
-        <v>0.7630806273830473</v>
+        <v>3.409411368321258</v>
       </c>
       <c r="G5">
-        <v>0.702281860319232</v>
+        <v>3.970895076535044</v>
       </c>
       <c r="H5">
-        <v>0.5017610411900506</v>
+        <v>0.04993079164724534</v>
       </c>
       <c r="I5">
-        <v>0.6025909351317225</v>
+        <v>0.005492125352302146</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.979083094252303</v>
       </c>
       <c r="K5">
-        <v>1.266546172098458</v>
+        <v>8.853051793186921</v>
       </c>
       <c r="L5">
-        <v>0.273457699062007</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5606586479363784</v>
+        <v>2.554139934484965</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03421665866096291</v>
+        <v>0.1050976697631114</v>
       </c>
       <c r="E6">
-        <v>0.08480972748214466</v>
+        <v>1.401630072950624</v>
       </c>
       <c r="F6">
-        <v>0.7605961303875404</v>
+        <v>3.384044291652913</v>
       </c>
       <c r="G6">
-        <v>0.7000810260769583</v>
+        <v>3.940937344364244</v>
       </c>
       <c r="H6">
-        <v>0.5010739882044533</v>
+        <v>0.04932418999004895</v>
       </c>
       <c r="I6">
-        <v>0.6029763396653252</v>
+        <v>0.005678592604341226</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.964901393786846</v>
       </c>
       <c r="K6">
-        <v>1.257791215478846</v>
+        <v>8.822774377572358</v>
       </c>
       <c r="L6">
-        <v>0.2715500594430864</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5867255869213182</v>
+        <v>2.679674505377193</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03452043364055157</v>
+        <v>0.1106624051073339</v>
       </c>
       <c r="E7">
-        <v>0.08444494641675027</v>
+        <v>1.472671199715293</v>
       </c>
       <c r="F7">
-        <v>0.7779799562064298</v>
+        <v>3.56069670422383</v>
       </c>
       <c r="G7">
-        <v>0.7154979294610797</v>
+        <v>4.149540701878152</v>
       </c>
       <c r="H7">
-        <v>0.5059257984497805</v>
+        <v>0.05359643327918651</v>
       </c>
       <c r="I7">
-        <v>0.6003920013220458</v>
+        <v>0.005126298530521822</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.063669712465384</v>
       </c>
       <c r="K7">
-        <v>1.318581034681443</v>
+        <v>9.255134397703301</v>
       </c>
       <c r="L7">
-        <v>0.2848139776647116</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7025972348374125</v>
+        <v>3.232954425216747</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03585571828921985</v>
+        <v>0.1356930971641219</v>
       </c>
       <c r="E8">
-        <v>0.08295655524418155</v>
+        <v>1.792967867100188</v>
       </c>
       <c r="F8">
-        <v>0.8583253610352415</v>
+        <v>4.356854602543137</v>
       </c>
       <c r="G8">
-        <v>0.7872207491174379</v>
+        <v>5.089253854131016</v>
       </c>
       <c r="H8">
-        <v>0.5294829212686949</v>
+        <v>0.07418595611816414</v>
       </c>
       <c r="I8">
-        <v>0.5913059471520796</v>
+        <v>0.002983637295266739</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.509043395984634</v>
       </c>
       <c r="K8">
-        <v>1.587559767865457</v>
+        <v>11.11520447974817</v>
       </c>
       <c r="L8">
-        <v>0.343971424979344</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.933702329115448</v>
+        <v>4.317762104430017</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03846075668256077</v>
+        <v>0.1873141929831093</v>
       </c>
       <c r="E9">
-        <v>0.0804873011784295</v>
+        <v>2.45791060075662</v>
       </c>
       <c r="F9">
-        <v>1.031045972565536</v>
+        <v>6.004407876910051</v>
       </c>
       <c r="G9">
-        <v>0.9433141705512611</v>
+        <v>7.032232309530741</v>
       </c>
       <c r="H9">
-        <v>0.5843881503140977</v>
+        <v>0.1231524365057908</v>
       </c>
       <c r="I9">
-        <v>0.582555770290746</v>
+        <v>0.0007709237982282957</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3.431592721365121</v>
       </c>
       <c r="K9">
-        <v>2.119857812023923</v>
+        <v>14.71684120082557</v>
       </c>
       <c r="L9">
-        <v>0.4628800128025858</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.10675115210131</v>
+        <v>5.117536575218594</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04037303115894275</v>
+        <v>0.2219824534116697</v>
       </c>
       <c r="E10">
-        <v>0.07896150784373068</v>
+        <v>2.85706683471652</v>
       </c>
       <c r="F10">
-        <v>1.169360497843897</v>
+        <v>7.211142713744437</v>
       </c>
       <c r="G10">
-        <v>1.069663993755029</v>
+        <v>8.447844152625294</v>
       </c>
       <c r="H10">
-        <v>0.6310633930232967</v>
+        <v>0.1635821214528903</v>
       </c>
       <c r="I10">
-        <v>0.5824058007207853</v>
+        <v>0.001201653847563655</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.103606991505785</v>
       </c>
       <c r="K10">
-        <v>2.516228044251733</v>
+        <v>17.46403937377977</v>
       </c>
       <c r="L10">
-        <v>0.5526864876092219</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.186398375186684</v>
+        <v>5.483227921780383</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0412444239616967</v>
+        <v>0.1901712098712949</v>
       </c>
       <c r="E11">
-        <v>0.07833365242138868</v>
+        <v>2.060991543235914</v>
       </c>
       <c r="F11">
-        <v>1.235291257737089</v>
+        <v>7.02725790460579</v>
       </c>
       <c r="G11">
-        <v>1.130226311381051</v>
+        <v>8.173502868930996</v>
       </c>
       <c r="H11">
-        <v>0.6539234695042637</v>
+        <v>0.1731553117273954</v>
       </c>
       <c r="I11">
-        <v>0.5838823575469547</v>
+        <v>0.002367729424657128</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.962459900649776</v>
       </c>
       <c r="K11">
-        <v>2.698271760610567</v>
+        <v>18.85368032969552</v>
       </c>
       <c r="L11">
-        <v>0.5942368362806292</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.216711206447741</v>
+        <v>5.621657906774885</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04157478761827349</v>
+        <v>0.1588916134372766</v>
       </c>
       <c r="E12">
-        <v>0.07810577449077982</v>
+        <v>1.45617561554792</v>
       </c>
       <c r="F12">
-        <v>1.260738719690622</v>
+        <v>6.623832974316969</v>
       </c>
       <c r="G12">
-        <v>1.153653511437682</v>
+        <v>7.655045915746655</v>
       </c>
       <c r="H12">
-        <v>0.6628369120463447</v>
+        <v>0.1997997249978596</v>
       </c>
       <c r="I12">
-        <v>0.584680179725666</v>
+        <v>0.002685594657501511</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.706307435484575</v>
       </c>
       <c r="K12">
-        <v>2.767508391678291</v>
+        <v>19.31862268951414</v>
       </c>
       <c r="L12">
-        <v>0.6100859312579985</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.210175710229606</v>
+        <v>5.59176753763677</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04150361770373578</v>
+        <v>0.1267842535077506</v>
       </c>
       <c r="E13">
-        <v>0.07815440672239804</v>
+        <v>0.9689969883158795</v>
       </c>
       <c r="F13">
-        <v>1.255235955172822</v>
+        <v>6.037767865262055</v>
       </c>
       <c r="G13">
-        <v>1.148585250281485</v>
+        <v>6.930980792842149</v>
       </c>
       <c r="H13">
-        <v>0.6609054346642154</v>
+        <v>0.2407925497345218</v>
       </c>
       <c r="I13">
-        <v>0.584497460706352</v>
+        <v>0.002565693310670802</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.352642167027625</v>
       </c>
       <c r="K13">
-        <v>2.752582803550212</v>
+        <v>19.20531942921514</v>
       </c>
       <c r="L13">
-        <v>0.6066671886561039</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.188889066532511</v>
+        <v>5.494584521201659</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04127159436265515</v>
+        <v>0.1046976052595809</v>
       </c>
       <c r="E14">
-        <v>0.07831470464279366</v>
+        <v>0.7044191500014136</v>
       </c>
       <c r="F14">
-        <v>1.237374907587494</v>
+        <v>5.555399490972974</v>
       </c>
       <c r="G14">
-        <v>1.132143487531067</v>
+        <v>6.344353992617243</v>
       </c>
       <c r="H14">
-        <v>0.6546514984908924</v>
+        <v>0.2793198075697632</v>
       </c>
       <c r="I14">
-        <v>0.5839431116156177</v>
+        <v>0.002371784973024482</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3.067203866671093</v>
       </c>
       <c r="K14">
-        <v>2.703961563243411</v>
+        <v>18.88634122454658</v>
       </c>
       <c r="L14">
-        <v>0.5955383599874011</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.175870786702887</v>
+        <v>5.435211649721566</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04112952919679103</v>
+        <v>0.09886437040168516</v>
       </c>
       <c r="E15">
-        <v>0.07841418923458665</v>
+        <v>0.6467244071792706</v>
       </c>
       <c r="F15">
-        <v>1.226498625415843</v>
+        <v>5.39998637868436</v>
       </c>
       <c r="G15">
-        <v>1.122138267641134</v>
+        <v>6.158399732789462</v>
       </c>
       <c r="H15">
-        <v>0.6508549410340834</v>
+        <v>0.2881550811325724</v>
       </c>
       <c r="I15">
-        <v>0.5836351548126686</v>
+        <v>0.002360979222651771</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.977367031970459</v>
       </c>
       <c r="K15">
-        <v>2.674220407958614</v>
+        <v>18.71695796697776</v>
       </c>
       <c r="L15">
-        <v>0.5887370485860401</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.10156624446779</v>
+        <v>5.094602465416756</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04031612767705539</v>
+        <v>0.09255340285596247</v>
       </c>
       <c r="E16">
-        <v>0.07900390172772775</v>
+        <v>0.608384735804421</v>
       </c>
       <c r="F16">
-        <v>1.165116357667941</v>
+        <v>5.030914794570919</v>
       </c>
       <c r="G16">
-        <v>1.065772352681677</v>
+        <v>5.736087272366319</v>
       </c>
       <c r="H16">
-        <v>0.6296040836688803</v>
+        <v>0.2630205156602727</v>
       </c>
       <c r="I16">
-        <v>0.5823417725887552</v>
+        <v>0.001876167382357075</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.778868756057818</v>
       </c>
       <c r="K16">
-        <v>2.504370219939346</v>
+        <v>17.58794607820846</v>
       </c>
       <c r="L16">
-        <v>0.5499863235657756</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.056233087541159</v>
+        <v>4.885989206660099</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03981762805471334</v>
+        <v>0.09884086262947278</v>
       </c>
       <c r="E17">
-        <v>0.07938287412333533</v>
+        <v>0.7015247787859167</v>
       </c>
       <c r="F17">
-        <v>1.128264288843354</v>
+        <v>4.997681387323922</v>
       </c>
       <c r="G17">
-        <v>1.032018025427305</v>
+        <v>5.715353073626432</v>
       </c>
       <c r="H17">
-        <v>0.616999769688519</v>
+        <v>0.2210477857830853</v>
       </c>
       <c r="I17">
-        <v>0.5819553289378803</v>
+        <v>0.001730364263757167</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.774330534344131</v>
       </c>
       <c r="K17">
-        <v>2.400651606907786</v>
+        <v>16.89909165923973</v>
       </c>
       <c r="L17">
-        <v>0.5264025529818213</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.03024463323527</v>
+        <v>4.765853761231199</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03953103269702751</v>
+        <v>0.1180399926857376</v>
       </c>
       <c r="E18">
-        <v>0.07960706003839002</v>
+        <v>0.9875937626506612</v>
       </c>
       <c r="F18">
-        <v>1.107348233837797</v>
+        <v>5.252338050703628</v>
       </c>
       <c r="G18">
-        <v>1.012890579291309</v>
+        <v>6.043078495729901</v>
       </c>
       <c r="H18">
-        <v>0.6099017870508163</v>
+        <v>0.1717729931829268</v>
       </c>
       <c r="I18">
-        <v>0.5818773908713197</v>
+        <v>0.001442733864612578</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.938326095852346</v>
       </c>
       <c r="K18">
-        <v>2.341155166031768</v>
+        <v>16.43940800149022</v>
       </c>
       <c r="L18">
-        <v>0.5129024413544272</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.021459604221519</v>
+        <v>4.725392223402764</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03943401366866439</v>
+        <v>0.1488100977228299</v>
       </c>
       <c r="E19">
-        <v>0.07968402219216264</v>
+        <v>1.520614353554748</v>
       </c>
       <c r="F19">
-        <v>1.100313161322362</v>
+        <v>5.737684425169448</v>
       </c>
       <c r="G19">
-        <v>1.006462222732083</v>
+        <v>6.651482840767983</v>
       </c>
       <c r="H19">
-        <v>0.6075239212127741</v>
+        <v>0.1388089873794627</v>
       </c>
       <c r="I19">
-        <v>0.5818753096958815</v>
+        <v>0.001548324453783501</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3.237011408356068</v>
       </c>
       <c r="K19">
-        <v>2.321036641304516</v>
+        <v>16.33392900694508</v>
       </c>
       <c r="L19">
-        <v>0.5083422125728418</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.061049848815202</v>
+        <v>4.908164011716337</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03987067973331904</v>
+        <v>0.2124596098417726</v>
       </c>
       <c r="E20">
-        <v>0.07934188662282127</v>
+        <v>2.74443891920825</v>
       </c>
       <c r="F20">
-        <v>1.132157912374396</v>
+        <v>6.884118717726039</v>
       </c>
       <c r="G20">
-        <v>1.035581164581643</v>
+        <v>8.063998265964983</v>
       </c>
       <c r="H20">
-        <v>0.6183256626297862</v>
+        <v>0.1521958341173431</v>
       </c>
       <c r="I20">
-        <v>0.5819814129664351</v>
+        <v>0.001719905060684646</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.921259764309582</v>
       </c>
       <c r="K20">
-        <v>2.411675737900993</v>
+        <v>16.96718881909851</v>
       </c>
       <c r="L20">
-        <v>0.5289062924194923</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.195137181550763</v>
+        <v>5.523485428345737</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04133973326336715</v>
+        <v>0.24913926767384</v>
       </c>
       <c r="E21">
-        <v>0.07826735017364284</v>
+        <v>3.262683984314478</v>
       </c>
       <c r="F21">
-        <v>1.242607674915448</v>
+        <v>7.982926966845639</v>
       </c>
       <c r="G21">
-        <v>1.136959016465084</v>
+        <v>9.363769998059354</v>
       </c>
       <c r="H21">
-        <v>0.6564812687634003</v>
+        <v>0.1921906024992808</v>
       </c>
       <c r="I21">
-        <v>0.5840993208885692</v>
+        <v>0.002702293241692466</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.540565034249653</v>
       </c>
       <c r="K21">
-        <v>2.718234207500274</v>
+        <v>19.05308145429086</v>
       </c>
       <c r="L21">
-        <v>0.5988039257614304</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.283667837963065</v>
+        <v>5.926508323456744</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04230219431805438</v>
+        <v>0.2710895660352719</v>
       </c>
       <c r="E22">
-        <v>0.07762284560272414</v>
+        <v>3.55063517831617</v>
       </c>
       <c r="F22">
-        <v>1.317621524786489</v>
+        <v>8.685929112889454</v>
       </c>
       <c r="G22">
-        <v>1.206118658968848</v>
+        <v>10.19192992309365</v>
       </c>
       <c r="H22">
-        <v>0.6829272672266029</v>
+        <v>0.2192326621968945</v>
       </c>
       <c r="I22">
-        <v>0.5868834182416336</v>
+        <v>0.003528557158452905</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.934820834399204</v>
       </c>
       <c r="K22">
-        <v>2.92036757513884</v>
+        <v>20.33691491389078</v>
       </c>
       <c r="L22">
-        <v>0.6451634199225538</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.236328624935226</v>
+        <v>5.7108134340574</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04178823199443116</v>
+        <v>0.2592811047486947</v>
       </c>
       <c r="E23">
-        <v>0.07796141645917665</v>
+        <v>3.395583910781113</v>
       </c>
       <c r="F23">
-        <v>1.277309426736508</v>
+        <v>8.307727523576972</v>
       </c>
       <c r="G23">
-        <v>1.168923510540196</v>
+        <v>9.746409162657983</v>
       </c>
       <c r="H23">
-        <v>0.6686663666826576</v>
+        <v>0.2045253354579408</v>
       </c>
       <c r="I23">
-        <v>0.585263565561327</v>
+        <v>0.002715883999479196</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.722706078442684</v>
       </c>
       <c r="K23">
-        <v>2.81230408335648</v>
+        <v>19.56216501873087</v>
       </c>
       <c r="L23">
-        <v>0.6203533250976392</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.058871961396676</v>
+        <v>4.897578964284719</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03984669508608718</v>
+        <v>0.2164010908263378</v>
       </c>
       <c r="E24">
-        <v>0.07936039744481738</v>
+        <v>2.835377753430251</v>
       </c>
       <c r="F24">
-        <v>1.13039676561101</v>
+        <v>6.934806567366422</v>
       </c>
       <c r="G24">
-        <v>1.03396940604128</v>
+        <v>8.128811534334034</v>
       </c>
       <c r="H24">
-        <v>0.6177257658824118</v>
+        <v>0.1542887491231895</v>
       </c>
       <c r="I24">
-        <v>0.5819691723562244</v>
+        <v>0.001218407943333943</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.952963341265217</v>
       </c>
       <c r="K24">
-        <v>2.406691318555517</v>
+        <v>16.7992951543556</v>
       </c>
       <c r="L24">
-        <v>0.5277741706601518</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8706789120611802</v>
+        <v>4.024421293534715</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03775685313710397</v>
+        <v>0.1729868677262658</v>
       </c>
       <c r="E25">
-        <v>0.08110579077465108</v>
+        <v>2.272731376509782</v>
       </c>
       <c r="F25">
-        <v>0.9824830349574114</v>
+        <v>5.546566506162208</v>
       </c>
       <c r="G25">
-        <v>0.8992114516945549</v>
+        <v>6.49246654274674</v>
       </c>
       <c r="H25">
-        <v>0.5685013175582867</v>
+        <v>0.1087308906828728</v>
       </c>
       <c r="I25">
-        <v>0.5838779922283734</v>
+        <v>0.001477616286327255</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3.175124639767716</v>
       </c>
       <c r="K25">
-        <v>1.97510937322005</v>
+        <v>13.86295033852412</v>
       </c>
       <c r="L25">
-        <v>0.4303348681189334</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.382579823018546</v>
+        <v>3.378576278209493</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1426160605693099</v>
+        <v>0.1396135911757881</v>
       </c>
       <c r="E2">
-        <v>1.881788683260922</v>
+        <v>1.815952248328358</v>
       </c>
       <c r="F2">
-        <v>4.57743312591171</v>
+        <v>4.505603869078612</v>
       </c>
       <c r="G2">
-        <v>5.349496332601973</v>
+        <v>5.316980729678392</v>
       </c>
       <c r="H2">
-        <v>0.08025970438801444</v>
+        <v>0.07102703857664849</v>
       </c>
       <c r="I2">
-        <v>0.002260916854637252</v>
+        <v>0.003056644453699242</v>
       </c>
       <c r="J2">
-        <v>2.632493768424524</v>
+        <v>2.639332085430226</v>
       </c>
       <c r="K2">
-        <v>11.52412880593585</v>
+        <v>3.74110026159741</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.269282526755489</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.534465596699633</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.94804521090208</v>
+        <v>2.947339705354239</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1227064796316881</v>
+        <v>0.1205907106930226</v>
       </c>
       <c r="E3">
-        <v>1.626629747420154</v>
+        <v>1.572057612056412</v>
       </c>
       <c r="F3">
-        <v>3.943493488575911</v>
+        <v>3.892527493510613</v>
       </c>
       <c r="G3">
-        <v>4.601443114695712</v>
+        <v>4.573683012189804</v>
       </c>
       <c r="H3">
-        <v>0.06322942845028479</v>
+        <v>0.05588720252424206</v>
       </c>
       <c r="I3">
-        <v>0.003740881386074868</v>
+        <v>0.004025344732524694</v>
       </c>
       <c r="J3">
-        <v>2.277763550764462</v>
+        <v>2.306035978867783</v>
       </c>
       <c r="K3">
-        <v>10.07224184298019</v>
+        <v>3.255618611089389</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.074118159501509</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.367805833580945</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.681048148418256</v>
+        <v>2.681821740710575</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1107277453807711</v>
+        <v>0.1090838007478965</v>
       </c>
       <c r="E4">
-        <v>1.473505688133926</v>
+        <v>1.425261338510438</v>
       </c>
       <c r="F4">
-        <v>3.562771770956317</v>
+        <v>3.522994426286516</v>
       </c>
       <c r="G4">
-        <v>4.151990844537949</v>
+        <v>4.12670234189909</v>
       </c>
       <c r="H4">
-        <v>0.05364727847668505</v>
+        <v>0.04735402439676317</v>
       </c>
       <c r="I4">
-        <v>0.004900121159329807</v>
+        <v>0.004739054703153833</v>
       </c>
       <c r="J4">
-        <v>2.064830029261685</v>
+        <v>2.103973203407747</v>
       </c>
       <c r="K4">
-        <v>9.189783335065897</v>
+        <v>2.961614114354148</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.9572798346558642</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.266105139427836</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.57219066657666</v>
+        <v>2.573431318137068</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1058970401939803</v>
+        <v>0.1044302331675198</v>
       </c>
       <c r="E5">
-        <v>1.41183168109589</v>
+        <v>1.366046227849793</v>
       </c>
       <c r="F5">
-        <v>3.409411368321258</v>
+        <v>3.373856048643233</v>
       </c>
       <c r="G5">
-        <v>3.970895076535044</v>
+        <v>3.946529871827295</v>
       </c>
       <c r="H5">
-        <v>0.04993079164724534</v>
+        <v>0.04404204542751522</v>
       </c>
       <c r="I5">
-        <v>0.005492125352302146</v>
+        <v>0.005143464472673109</v>
       </c>
       <c r="J5">
-        <v>1.979083094252303</v>
+        <v>2.022166839850712</v>
       </c>
       <c r="K5">
-        <v>8.853051793186921</v>
+        <v>2.849965454661373</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9127747871722391</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.227799715848946</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.554139934484965</v>
+        <v>2.555426853161975</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1050976697631114</v>
+        <v>0.1036594449964667</v>
       </c>
       <c r="E6">
-        <v>1.401630072950624</v>
+        <v>1.356246427941215</v>
       </c>
       <c r="F6">
-        <v>3.384044291652913</v>
+        <v>3.34917151079236</v>
       </c>
       <c r="G6">
-        <v>3.940937344364244</v>
+        <v>3.916721107445085</v>
       </c>
       <c r="H6">
-        <v>0.04932418999004895</v>
+        <v>0.04350136045938502</v>
       </c>
       <c r="I6">
-        <v>0.005678592604341226</v>
+        <v>0.005326341803787216</v>
       </c>
       <c r="J6">
-        <v>1.964901393786846</v>
+        <v>2.008612226651081</v>
       </c>
       <c r="K6">
-        <v>8.822774377572358</v>
+        <v>2.840268242994895</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.9083254795348807</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.225121752171859</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.679674505377193</v>
+        <v>2.680378805135774</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1106624051073339</v>
+        <v>0.1084496885854804</v>
       </c>
       <c r="E7">
-        <v>1.472671199715293</v>
+        <v>1.424167016995298</v>
       </c>
       <c r="F7">
-        <v>3.56069670422383</v>
+        <v>3.512712516403695</v>
       </c>
       <c r="G7">
-        <v>4.149540701878152</v>
+        <v>4.129797287756332</v>
       </c>
       <c r="H7">
-        <v>0.05359643327918651</v>
+        <v>0.04727072939825572</v>
       </c>
       <c r="I7">
-        <v>0.005126298530521822</v>
+        <v>0.005038490317037514</v>
       </c>
       <c r="J7">
-        <v>2.063669712465384</v>
+        <v>2.081034049496793</v>
       </c>
       <c r="K7">
-        <v>9.255134397703301</v>
+        <v>2.984205148036381</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.9646831569641563</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.275613335583614</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.232954425216747</v>
+        <v>3.230071579089156</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1356930971641219</v>
+        <v>0.131086778120391</v>
       </c>
       <c r="E8">
-        <v>1.792967867100188</v>
+        <v>1.730116846709663</v>
       </c>
       <c r="F8">
-        <v>4.356854602543137</v>
+        <v>4.264678520017895</v>
       </c>
       <c r="G8">
-        <v>5.089253854131016</v>
+        <v>5.077026057340731</v>
       </c>
       <c r="H8">
-        <v>0.07418595611816414</v>
+        <v>0.06548871368879361</v>
       </c>
       <c r="I8">
-        <v>0.002983637295266739</v>
+        <v>0.003722201397252434</v>
       </c>
       <c r="J8">
-        <v>2.509043395984634</v>
+        <v>2.450523218335945</v>
       </c>
       <c r="K8">
-        <v>11.11520447974817</v>
+        <v>3.605289617470902</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.212390714097253</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.490119735010097</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.317762104430017</v>
+        <v>4.302643912013025</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1873141929831093</v>
+        <v>0.1793208247420353</v>
       </c>
       <c r="E9">
-        <v>2.45791060075662</v>
+        <v>2.361655622903285</v>
       </c>
       <c r="F9">
-        <v>6.004407876910051</v>
+        <v>5.838554553338525</v>
       </c>
       <c r="G9">
-        <v>7.032232309530741</v>
+        <v>7.009229802091568</v>
       </c>
       <c r="H9">
-        <v>0.1231524365057908</v>
+        <v>0.1087518457863901</v>
       </c>
       <c r="I9">
-        <v>0.0007709237982282957</v>
+        <v>0.001750839933198023</v>
       </c>
       <c r="J9">
-        <v>3.431592721365121</v>
+        <v>3.279807146407506</v>
       </c>
       <c r="K9">
-        <v>14.71684120082557</v>
+        <v>4.812748387863337</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.707007242616882</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.898641978828749</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.117536575218594</v>
+        <v>5.088379665885611</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2219824534116697</v>
+        <v>0.2075178468954562</v>
       </c>
       <c r="E10">
-        <v>2.85706683471652</v>
+        <v>2.730480689928825</v>
       </c>
       <c r="F10">
-        <v>7.211142713744437</v>
+        <v>6.926346221171315</v>
       </c>
       <c r="G10">
-        <v>8.447844152625294</v>
+        <v>8.444956384643945</v>
       </c>
       <c r="H10">
-        <v>0.1635821214528903</v>
+        <v>0.1437929994783573</v>
       </c>
       <c r="I10">
-        <v>0.001201653847563655</v>
+        <v>0.001279931821879465</v>
       </c>
       <c r="J10">
-        <v>4.103606991505785</v>
+        <v>3.733488506188792</v>
       </c>
       <c r="K10">
-        <v>17.46403937377977</v>
+        <v>5.735045842027631</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.089944884526147</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.208521902997461</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.483227921780383</v>
+        <v>5.445722319817378</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1901712098712949</v>
+        <v>0.1701005641798758</v>
       </c>
       <c r="E11">
-        <v>2.060991543235914</v>
+        <v>1.942329763392749</v>
       </c>
       <c r="F11">
-        <v>7.02725790460579</v>
+        <v>6.635906531314362</v>
       </c>
       <c r="G11">
-        <v>8.173502868930996</v>
+        <v>8.247413360243229</v>
       </c>
       <c r="H11">
-        <v>0.1731553117273954</v>
+        <v>0.1533530701563599</v>
       </c>
       <c r="I11">
-        <v>0.002367729424657128</v>
+        <v>0.001775712278451635</v>
       </c>
       <c r="J11">
-        <v>3.962459900649776</v>
+        <v>3.321024070101316</v>
       </c>
       <c r="K11">
-        <v>18.85368032969552</v>
+        <v>6.202209118983291</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.28265502974719</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.367332736035479</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.621657906774885</v>
+        <v>5.580955086518543</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1588916134372766</v>
+        <v>0.1381355187183146</v>
       </c>
       <c r="E12">
-        <v>1.45617561554792</v>
+        <v>1.350198038983834</v>
       </c>
       <c r="F12">
-        <v>6.623832974316969</v>
+        <v>6.203322235592509</v>
       </c>
       <c r="G12">
-        <v>7.655045915746655</v>
+        <v>7.767078146372455</v>
       </c>
       <c r="H12">
-        <v>0.1997997249978596</v>
+        <v>0.1810910220064699</v>
       </c>
       <c r="I12">
-        <v>0.002685594657501511</v>
+        <v>0.001745455916534411</v>
       </c>
       <c r="J12">
-        <v>3.706307435484575</v>
+        <v>2.974608567547421</v>
       </c>
       <c r="K12">
-        <v>19.31862268951414</v>
+        <v>6.357694151093142</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.348233783844535</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.418916410462685</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.59176753763677</v>
+        <v>5.551814712942416</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1267842535077506</v>
+        <v>0.1093973059202824</v>
       </c>
       <c r="E13">
-        <v>0.9689969883158795</v>
+        <v>0.8791134277693331</v>
       </c>
       <c r="F13">
-        <v>6.037767865262055</v>
+        <v>5.661032677916779</v>
       </c>
       <c r="G13">
-        <v>6.930980792842149</v>
+        <v>7.040665537191728</v>
       </c>
       <c r="H13">
-        <v>0.2407925497345218</v>
+        <v>0.2240528345129746</v>
       </c>
       <c r="I13">
-        <v>0.002565693310670802</v>
+        <v>0.001695596200473659</v>
       </c>
       <c r="J13">
-        <v>3.352642167027625</v>
+        <v>2.69809772498229</v>
       </c>
       <c r="K13">
-        <v>19.20531942921514</v>
+        <v>6.319664415238634</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.332479451636175</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.406027843523276</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.494584521201659</v>
+        <v>5.45684162663423</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1046976052595809</v>
+        <v>0.09090459917152316</v>
       </c>
       <c r="E14">
-        <v>0.7044191500014136</v>
+        <v>0.6262126233562029</v>
       </c>
       <c r="F14">
-        <v>5.555399490972974</v>
+        <v>5.236748276077776</v>
       </c>
       <c r="G14">
-        <v>6.344353992617243</v>
+        <v>6.435800781524279</v>
       </c>
       <c r="H14">
-        <v>0.2793198075697632</v>
+        <v>0.2642023557324791</v>
       </c>
       <c r="I14">
-        <v>0.002371784973024482</v>
+        <v>0.001748908435047269</v>
       </c>
       <c r="J14">
-        <v>3.067203866671093</v>
+        <v>2.530237130792841</v>
       </c>
       <c r="K14">
-        <v>18.88634122454658</v>
+        <v>6.21307164981539</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.2873583332794</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.370820410979235</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.435211649721566</v>
+        <v>5.398696030793189</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09886437040168516</v>
+        <v>0.08649411412399388</v>
       </c>
       <c r="E15">
-        <v>0.6467244071792706</v>
+        <v>0.5720844735728434</v>
       </c>
       <c r="F15">
-        <v>5.39998637868436</v>
+        <v>5.107602385971887</v>
       </c>
       <c r="G15">
-        <v>6.158399732789462</v>
+        <v>6.238699538929779</v>
       </c>
       <c r="H15">
-        <v>0.2881550811325724</v>
+        <v>0.2736222410059526</v>
       </c>
       <c r="I15">
-        <v>0.002360979222651771</v>
+        <v>0.001898833612082207</v>
       </c>
       <c r="J15">
-        <v>2.977367031970459</v>
+        <v>2.496658479631037</v>
       </c>
       <c r="K15">
-        <v>18.71695796697776</v>
+        <v>6.156750465584281</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.262940954596274</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.35276995585113</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.094602465416756</v>
+        <v>5.065248474393343</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09255340285596247</v>
+        <v>0.08526273504798354</v>
       </c>
       <c r="E16">
-        <v>0.608384735804421</v>
+        <v>0.5423071811972946</v>
       </c>
       <c r="F16">
-        <v>5.030914794570919</v>
+        <v>4.844126365455111</v>
       </c>
       <c r="G16">
-        <v>5.736087272366319</v>
+        <v>5.761378067282124</v>
       </c>
       <c r="H16">
-        <v>0.2630205156602727</v>
+        <v>0.250480370979389</v>
       </c>
       <c r="I16">
-        <v>0.001876167382357075</v>
+        <v>0.002132965869034109</v>
       </c>
       <c r="J16">
-        <v>2.778868756057818</v>
+        <v>2.537880786179016</v>
       </c>
       <c r="K16">
-        <v>17.58794607820846</v>
+        <v>5.778888397600923</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.103758719287725</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.227478206699885</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.885989206660099</v>
+        <v>4.860634695954957</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09884086262947278</v>
+        <v>0.09344605041023613</v>
       </c>
       <c r="E17">
-        <v>0.7015247787859167</v>
+        <v>0.6363505986957421</v>
       </c>
       <c r="F17">
-        <v>4.997681387323922</v>
+        <v>4.852518670629109</v>
       </c>
       <c r="G17">
-        <v>5.715353073626432</v>
+        <v>5.715084786975126</v>
       </c>
       <c r="H17">
-        <v>0.2210477857830853</v>
+        <v>0.2091850900733476</v>
       </c>
       <c r="I17">
-        <v>0.001730364263757167</v>
+        <v>0.002343139873187461</v>
       </c>
       <c r="J17">
-        <v>2.774330534344131</v>
+        <v>2.633926009637833</v>
       </c>
       <c r="K17">
-        <v>16.89909165923973</v>
+        <v>5.548135641191635</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.006833797062043</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.150849485818298</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.765853761231199</v>
+        <v>4.742859392050264</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1180399926857376</v>
+        <v>0.1129855743440942</v>
       </c>
       <c r="E18">
-        <v>0.9875937626506612</v>
+        <v>0.9168337060602241</v>
       </c>
       <c r="F18">
-        <v>5.252338050703628</v>
+        <v>5.117365427751395</v>
       </c>
       <c r="G18">
-        <v>6.043078495729901</v>
+        <v>6.027565826091575</v>
       </c>
       <c r="H18">
-        <v>0.1717729931829268</v>
+        <v>0.1595884364211457</v>
       </c>
       <c r="I18">
-        <v>0.001442733864612578</v>
+        <v>0.002176283411105651</v>
       </c>
       <c r="J18">
-        <v>2.938326095852346</v>
+        <v>2.834259802376209</v>
       </c>
       <c r="K18">
-        <v>16.43940800149022</v>
+        <v>5.393326535686327</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.94342675023924</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.097949184136525</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.725392223402764</v>
+        <v>4.703025162701977</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1488100977228299</v>
+        <v>0.1429892797903278</v>
       </c>
       <c r="E19">
-        <v>1.520614353554748</v>
+        <v>1.437797548869227</v>
       </c>
       <c r="F19">
-        <v>5.737684425169448</v>
+        <v>5.592163330926695</v>
       </c>
       <c r="G19">
-        <v>6.651482840767983</v>
+        <v>6.624940616137224</v>
       </c>
       <c r="H19">
-        <v>0.1388089873794627</v>
+        <v>0.1253118588189963</v>
       </c>
       <c r="I19">
-        <v>0.001548324453783501</v>
+        <v>0.002359535199826901</v>
       </c>
       <c r="J19">
-        <v>3.237011408356068</v>
+        <v>3.130038859056697</v>
       </c>
       <c r="K19">
-        <v>16.33392900694508</v>
+        <v>5.358299166975712</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.928117299238608</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.086916665365067</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.908164011716337</v>
+        <v>4.882413673458302</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2124596098417726</v>
+        <v>0.2019222309131976</v>
       </c>
       <c r="E20">
-        <v>2.74443891920825</v>
+        <v>2.627861048841837</v>
       </c>
       <c r="F20">
-        <v>6.884118717726039</v>
+        <v>6.663884417956098</v>
       </c>
       <c r="G20">
-        <v>8.063998265964983</v>
+        <v>8.036173991440023</v>
       </c>
       <c r="H20">
-        <v>0.1521958341173431</v>
+        <v>0.134157662138648</v>
       </c>
       <c r="I20">
-        <v>0.001719905060684646</v>
+        <v>0.002293599022437753</v>
       </c>
       <c r="J20">
-        <v>3.921259764309582</v>
+        <v>3.691700271173545</v>
       </c>
       <c r="K20">
-        <v>16.96718881909851</v>
+        <v>5.570893123944472</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.01649933739985</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.158299005326839</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.523485428345737</v>
+        <v>5.484826355133919</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.24913926767384</v>
+        <v>0.2212343696033514</v>
       </c>
       <c r="E21">
-        <v>3.262683984314478</v>
+        <v>3.106888174469006</v>
       </c>
       <c r="F21">
-        <v>7.982926966845639</v>
+        <v>7.486339648224117</v>
       </c>
       <c r="G21">
-        <v>9.363769998059354</v>
+        <v>9.4543138399344</v>
       </c>
       <c r="H21">
-        <v>0.1921906024992808</v>
+        <v>0.1675617113483661</v>
       </c>
       <c r="I21">
-        <v>0.002702293241692466</v>
+        <v>0.002053564270288355</v>
       </c>
       <c r="J21">
-        <v>4.540565034249653</v>
+        <v>3.70025991890958</v>
       </c>
       <c r="K21">
-        <v>19.05308145429086</v>
+        <v>6.269646845388792</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2.309618161752923</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.391090112649806</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.926508323456744</v>
+        <v>5.878322507905352</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2710895660352719</v>
+        <v>0.2305973240742532</v>
       </c>
       <c r="E22">
-        <v>3.55063517831617</v>
+        <v>3.366927975832198</v>
       </c>
       <c r="F22">
-        <v>8.685929112889454</v>
+        <v>7.985832158928218</v>
       </c>
       <c r="G22">
-        <v>10.19192992309365</v>
+        <v>10.36890159878021</v>
       </c>
       <c r="H22">
-        <v>0.2192326621968945</v>
+        <v>0.1897772456322819</v>
       </c>
       <c r="I22">
-        <v>0.003528557158452905</v>
+        <v>0.001713660669675932</v>
       </c>
       <c r="J22">
-        <v>4.934820834399204</v>
+        <v>3.659961066010396</v>
       </c>
       <c r="K22">
-        <v>20.33691491389078</v>
+        <v>6.697768887311383</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2.492138791216632</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.531456330504653</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.7108134340574</v>
+        <v>5.668198652478793</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2592811047486947</v>
+        <v>0.2271481181837487</v>
       </c>
       <c r="E23">
-        <v>3.395583910781113</v>
+        <v>3.228150163006731</v>
       </c>
       <c r="F23">
-        <v>8.307727523576972</v>
+        <v>7.741143325876322</v>
       </c>
       <c r="G23">
-        <v>9.746409162657983</v>
+        <v>9.861840327274251</v>
       </c>
       <c r="H23">
-        <v>0.2045253354579408</v>
+        <v>0.1778755868749009</v>
       </c>
       <c r="I23">
-        <v>0.002715883999479196</v>
+        <v>0.00150558351853558</v>
       </c>
       <c r="J23">
-        <v>4.722706078442684</v>
+        <v>3.737584031956942</v>
       </c>
       <c r="K23">
-        <v>19.56216501873087</v>
+        <v>6.438451105679064</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.383611013305767</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.444496692595919</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.897578964284719</v>
+        <v>4.872433106037306</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2164010908263378</v>
+        <v>0.2058090062960076</v>
       </c>
       <c r="E24">
-        <v>2.835377753430251</v>
+        <v>2.716919997273777</v>
       </c>
       <c r="F24">
-        <v>6.934806567366422</v>
+        <v>6.714286269191177</v>
       </c>
       <c r="G24">
-        <v>8.128811534334034</v>
+        <v>8.098800528585855</v>
       </c>
       <c r="H24">
-        <v>0.1542887491231895</v>
+        <v>0.1360369778267092</v>
       </c>
       <c r="I24">
-        <v>0.001218407943333943</v>
+        <v>0.001704931354927552</v>
       </c>
       <c r="J24">
-        <v>3.952963341265217</v>
+        <v>3.725741285782703</v>
       </c>
       <c r="K24">
-        <v>16.7992951543556</v>
+        <v>5.513065322093979</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.995324172740297</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.136118663916704</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.024421293534715</v>
+        <v>4.013054121371852</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1729868677262658</v>
+        <v>0.1668627387650616</v>
       </c>
       <c r="E25">
-        <v>2.272731376509782</v>
+        <v>2.186937129295984</v>
       </c>
       <c r="F25">
-        <v>5.546566506162208</v>
+        <v>5.415349967221317</v>
       </c>
       <c r="G25">
-        <v>6.49246654274674</v>
+        <v>6.465229664980995</v>
       </c>
       <c r="H25">
-        <v>0.1087308906828728</v>
+        <v>0.0961190885125216</v>
       </c>
       <c r="I25">
-        <v>0.001477616286327255</v>
+        <v>0.002670473434883469</v>
       </c>
       <c r="J25">
-        <v>3.175124639767716</v>
+        <v>3.083714355301026</v>
       </c>
       <c r="K25">
-        <v>13.86295033852412</v>
+        <v>4.527650811568321</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.586372249236902</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.805564981904482</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
